--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
@@ -543,40 +543,40 @@
         <v>1.013966</v>
       </c>
       <c r="I2">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J2">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1900966666666667</v>
+        <v>0.1199136666666667</v>
       </c>
       <c r="N2">
-        <v>0.57029</v>
+        <v>0.359741</v>
       </c>
       <c r="O2">
-        <v>0.05523110599154212</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="P2">
-        <v>0.05523110599154211</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="Q2">
-        <v>0.06425051890444444</v>
+        <v>0.04052946031177777</v>
       </c>
       <c r="R2">
-        <v>0.5782546701399999</v>
+        <v>0.364765142806</v>
       </c>
       <c r="S2">
-        <v>0.03280401902890317</v>
+        <v>0.01621067840005512</v>
       </c>
       <c r="T2">
-        <v>0.03280401902890317</v>
+        <v>0.01621067840005512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.013966</v>
       </c>
       <c r="I3">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J3">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,25 +620,25 @@
         <v>0.247271</v>
       </c>
       <c r="N3">
-        <v>0.7418129999999999</v>
+        <v>0.7418130000000001</v>
       </c>
       <c r="O3">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="P3">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="Q3">
         <v>0.08357479559533333</v>
       </c>
       <c r="R3">
-        <v>0.7521731603579999</v>
+        <v>0.752173160358</v>
       </c>
       <c r="S3">
-        <v>0.04267030417487198</v>
+        <v>0.03342763815072537</v>
       </c>
       <c r="T3">
-        <v>0.04267030417487198</v>
+        <v>0.03342763815072537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>1.013966</v>
       </c>
       <c r="I4">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J4">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.05333966666666667</v>
+        <v>0.355759</v>
       </c>
       <c r="N4">
-        <v>0.160019</v>
+        <v>1.067277</v>
       </c>
       <c r="O4">
-        <v>0.0154974247306819</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="P4">
-        <v>0.01549742473068189</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="Q4">
-        <v>0.01802820281711111</v>
+        <v>0.1202425100646667</v>
       </c>
       <c r="R4">
-        <v>0.162253825354</v>
+        <v>1.082182590582</v>
       </c>
       <c r="S4">
-        <v>0.009204556139834216</v>
+        <v>0.04809372356994514</v>
       </c>
       <c r="T4">
-        <v>0.009204556139834218</v>
+        <v>0.04809372356994514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.013966</v>
       </c>
       <c r="I5">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J5">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.951133333333333</v>
+        <v>2.727572666666667</v>
       </c>
       <c r="N5">
-        <v>8.853400000000001</v>
+        <v>8.182718000000001</v>
       </c>
       <c r="O5">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="P5">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="Q5">
-        <v>0.9974496204888889</v>
+        <v>0.9218886488431113</v>
       </c>
       <c r="R5">
-        <v>8.9770465844</v>
+        <v>8.296997839588</v>
       </c>
       <c r="S5">
-        <v>0.5092621334242075</v>
+        <v>0.3687303085729519</v>
       </c>
       <c r="T5">
-        <v>0.5092621334242076</v>
+        <v>0.3687303085729519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H6">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I6">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J6">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1900966666666667</v>
+        <v>0.1199136666666667</v>
       </c>
       <c r="N6">
-        <v>0.57029</v>
+        <v>0.359741</v>
       </c>
       <c r="O6">
-        <v>0.05523110599154212</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="P6">
-        <v>0.05523110599154211</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="Q6">
-        <v>0.04392608032555555</v>
+        <v>0.04635742439666666</v>
       </c>
       <c r="R6">
-        <v>0.3953347229299999</v>
+        <v>0.41721681957</v>
       </c>
       <c r="S6">
-        <v>0.02242708696263895</v>
+        <v>0.01854170503550606</v>
       </c>
       <c r="T6">
-        <v>0.02242708696263895</v>
+        <v>0.01854170503550606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H7">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I7">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J7">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,25 +868,25 @@
         <v>0.247271</v>
       </c>
       <c r="N7">
-        <v>0.7418129999999999</v>
+        <v>0.7418130000000001</v>
       </c>
       <c r="O7">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="P7">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="Q7">
-        <v>0.05713748693566666</v>
+        <v>0.09559249589</v>
       </c>
       <c r="R7">
-        <v>0.5142373824209999</v>
+        <v>0.86033246301</v>
       </c>
       <c r="S7">
-        <v>0.02917235908224953</v>
+        <v>0.03823439040171639</v>
       </c>
       <c r="T7">
-        <v>0.02917235908224954</v>
+        <v>0.03823439040171639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H8">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I8">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J8">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.05333966666666667</v>
+        <v>0.355759</v>
       </c>
       <c r="N8">
-        <v>0.160019</v>
+        <v>1.067277</v>
       </c>
       <c r="O8">
-        <v>0.0154974247306819</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="P8">
-        <v>0.01549742473068189</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="Q8">
-        <v>0.01232532123588889</v>
+        <v>0.13753287181</v>
       </c>
       <c r="R8">
-        <v>0.110927891123</v>
+        <v>1.23779584629</v>
       </c>
       <c r="S8">
-        <v>0.006292868590847677</v>
+        <v>0.05500939655246357</v>
       </c>
       <c r="T8">
-        <v>0.006292868590847678</v>
+        <v>0.05500939655246357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H9">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I9">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J9">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.951133333333333</v>
+        <v>2.727572666666667</v>
       </c>
       <c r="N9">
-        <v>8.853400000000001</v>
+        <v>8.182718000000001</v>
       </c>
       <c r="O9">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="P9">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="Q9">
-        <v>0.6819252653111111</v>
+        <v>1.054452317206667</v>
       </c>
       <c r="R9">
-        <v>6.1373273878</v>
+        <v>9.490070854860001</v>
       </c>
       <c r="S9">
-        <v>0.3481666725964468</v>
+        <v>0.4217521593166363</v>
       </c>
       <c r="T9">
-        <v>0.3481666725964469</v>
+        <v>0.4217521593166363</v>
       </c>
     </row>
   </sheetData>
